--- a/English.xlsx
+++ b/English.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\ENGLISH\English\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A72A4778-4830-4B34-B174-4520E14687C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0296633-759C-40FF-97DE-8D865B254E19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E151F7C2-5721-4779-8333-DD520FA6FE96}"/>
   </bookViews>
@@ -24,12 +24,57 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>Word/Phrase</t>
+  </si>
+  <si>
+    <t>E.G#2</t>
+  </si>
+  <si>
+    <t>E.G#1</t>
+  </si>
+  <si>
+    <t>Meaning</t>
+  </si>
+  <si>
+    <t>Situation of using</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -55,13 +100,64 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd;@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -72,6 +168,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74C246AF-D405-4967-AB12-0CC1F27965F0}" name="Table1" displayName="Table1" ref="A1:H15" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:H15" xr:uid="{74C246AF-D405-4967-AB12-0CC1F27965F0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{91F43DF2-B4DF-40CA-9D0B-80CDE486619C}" name="Word/Phrase" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6C459633-F709-43D4-B84D-341616450D5E}" name="E.G#1" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{A6F16182-C560-4BD1-9121-F68E7A20662C}" name="E.G#2" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{81721624-8D08-4E67-83D0-0FF46DE88F39}" name="Meaning" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{6B2DAD0B-42CD-4DA0-92A8-787BC01CE31E}" name="Situation of using" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{FD576A13-E4A1-4A40-AC1D-2400CF8EA958}" name="Source" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{C3969F3F-8E13-4DEB-A609-854589BA971D}" name="Date" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{FD469A5A-BC52-40A3-B5A5-1EF1E4A2EECA}" name="Note" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,12 +484,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A9C046-010A-47E2-BF8F-F0703DF85632}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="25.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="5" customFormat="1" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576" xr:uid="{BFED51A8-FD2D-4CDC-A895-E03165960495}">
+      <formula1>"Formal , Friendly , Street"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>